--- a/eciv/sequence_matches_2.xlsx
+++ b/eciv/sequence_matches_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/eciv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{896D07A5-F564-4811-B889-01A545D210C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E80360F-7664-468D-99C1-75C8C76B1522}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="8_{896D07A5-F564-4811-B889-01A545D210C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C086A0A-898C-403C-96A3-C5B9F63166DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{05FDF027-9473-498D-B329-5D835867828B}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{05FDF027-9473-498D-B329-5D835867828B}"/>
   </bookViews>
   <sheets>
     <sheet name="Family" sheetId="1" r:id="rId1"/>
@@ -790,18 +790,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EAE300-0173-4304-9846-7BFD5AC1013E}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -809,7 +809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -849,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -865,7 +865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -873,7 +873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -881,7 +881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -889,7 +889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -905,7 +905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -913,7 +913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -921,7 +921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -929,7 +929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -937,7 +937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -945,7 +945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -953,7 +953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -961,7 +961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -969,7 +969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -977,7 +977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -985,7 +985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -993,7 +993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1073,25 +1073,25 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B870"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G780" sqref="G780"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>119</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>119</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>119</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>119</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>119</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>119</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>119</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>119</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>119</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>119</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>119</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>119</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>119</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>119</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>119</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>119</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>119</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>119</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>119</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>119</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>119</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>119</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>119</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>119</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>119</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>119</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>119</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>119</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>119</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>119</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>119</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>119</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>119</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>119</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>119</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>119</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>119</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>119</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>119</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>119</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>119</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>119</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>119</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>119</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>119</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>119</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>119</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>119</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>119</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>119</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>119</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>119</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>119</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>119</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>119</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>119</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>119</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>119</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>119</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>119</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>119</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>119</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>119</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>119</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>119</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>119</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>119</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>119</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>119</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>119</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>119</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>119</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>119</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>119</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>119</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>119</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>119</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>119</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>119</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>119</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>119</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>119</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>119</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>119</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>119</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>119</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>119</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>119</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>119</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>119</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>119</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>119</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>119</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>119</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>119</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>119</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>119</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>119</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>119</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>119</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>119</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>119</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>119</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>119</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>119</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>119</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>119</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>119</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>119</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>119</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>119</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>119</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>119</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>119</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>119</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>119</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>119</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>119</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>119</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>119</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>119</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>119</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>119</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>119</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>119</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>119</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>119</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>119</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>119</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>119</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>119</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>119</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>119</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>119</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>119</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>119</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>119</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>119</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>119</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>119</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>119</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>119</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>119</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>119</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>119</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>119</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>119</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>119</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>119</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>119</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>119</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>119</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>119</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>119</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>119</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>119</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>119</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>119</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>119</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>119</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>119</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>119</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>119</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>119</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>119</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>119</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>119</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>119</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>119</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>119</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>119</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>119</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>119</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>119</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>119</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>119</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>119</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>119</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>119</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>119</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>119</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>119</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>119</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>119</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>119</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>119</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>119</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>119</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>119</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>119</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>119</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>119</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>119</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>119</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>119</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>119</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>119</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>119</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>119</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>119</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>119</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>119</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>119</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>119</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>119</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>119</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>119</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>119</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>119</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>119</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>119</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>119</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>119</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>119</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>119</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>119</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>119</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>119</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>119</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>119</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>119</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>119</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>119</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>119</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>119</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>119</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>119</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>119</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>119</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>119</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>119</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>119</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>119</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>119</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>119</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>119</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>119</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>119</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>119</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>119</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>119</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>119</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>119</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>119</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>119</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>119</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>119</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>119</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>119</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>119</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>119</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>119</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>119</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>119</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>119</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>119</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>119</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>119</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>119</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>119</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>119</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>119</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>119</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>119</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>119</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>119</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>119</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>119</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>119</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>119</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>119</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>119</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>119</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>119</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>119</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>119</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>119</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>119</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>119</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>119</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>119</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>119</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>119</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>119</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>119</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>119</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>119</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>119</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>119</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>119</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>119</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>119</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>119</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>119</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>119</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>119</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>119</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>119</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>119</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>119</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>119</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>119</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>119</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>119</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>119</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>119</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>119</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>119</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>119</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>119</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>119</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>119</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>119</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>119</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>119</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>119</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>119</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>119</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>119</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>119</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>119</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>119</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>119</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>119</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>119</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>119</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>119</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>119</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>119</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>119</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>119</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>119</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>119</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>119</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>119</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>119</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>119</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>119</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>119</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>119</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>119</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>119</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>119</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>119</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>119</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>119</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>119</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>119</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>119</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>119</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>119</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>119</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>119</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>119</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>119</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>119</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>119</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>119</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>119</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>119</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>119</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>119</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>119</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>119</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>119</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>119</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>119</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>119</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>119</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>119</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>119</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>119</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>119</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>119</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>119</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>119</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>119</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>119</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>119</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>119</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>119</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>119</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>119</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>119</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>119</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>119</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>119</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>119</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>119</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>119</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>119</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>119</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>119</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>119</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>119</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>119</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>119</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>119</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>119</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>119</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>119</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>119</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>119</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>119</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>119</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>119</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>119</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>119</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>119</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>119</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>119</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>119</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>119</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>119</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>119</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>119</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>119</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>119</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>119</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>119</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>119</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>119</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>119</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>119</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>119</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>119</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>119</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>119</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>119</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>119</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>119</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>119</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>119</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>119</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>119</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>119</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>119</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>119</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>119</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>119</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>119</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>119</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>119</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>119</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>119</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>119</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>119</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>119</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>119</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>119</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>119</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>119</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>119</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>119</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>119</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>119</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>119</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>119</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>119</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>119</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>119</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>119</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>119</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>119</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>119</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>119</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>119</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>119</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>119</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>119</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>119</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>119</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>119</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>119</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>119</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>119</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>119</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>119</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>119</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>119</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>119</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>119</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>119</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>119</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>119</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>119</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>119</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>119</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>119</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>119</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>119</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>119</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>119</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>119</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>119</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>119</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>119</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>119</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>119</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>119</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>119</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>119</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>119</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>119</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>119</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>119</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>119</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>119</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>119</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>119</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>119</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>119</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>119</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>119</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>119</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>119</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>119</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>119</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>119</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>119</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="638" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>119</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>119</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>119</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>119</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>119</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>119</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>119</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>119</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>119</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>119</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>119</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>119</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>119</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>119</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>119</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>119</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>119</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>119</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="656" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>119</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="657" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>119</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="658" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>119</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="659" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>119</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="660" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>119</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="661" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>119</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="662" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>119</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="663" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>119</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="664" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>119</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="665" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>119</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="666" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>119</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="667" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>119</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="668" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>119</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="669" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>119</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="670" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>119</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="671" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>119</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="672" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>119</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>119</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>119</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>119</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="676" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>119</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>119</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>119</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>119</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>119</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>119</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="682" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>119</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="683" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>119</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="684" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>119</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="685" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>119</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="686" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>119</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="687" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>119</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="688" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>119</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="689" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>119</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="690" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>119</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="691" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>119</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="692" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>119</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="693" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>119</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="694" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>119</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="695" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>119</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="696" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>119</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="697" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>119</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="698" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>119</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="699" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>119</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="700" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>119</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="701" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>119</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="702" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>119</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="703" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>119</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="704" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>119</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="705" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>119</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="706" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>119</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="707" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>119</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="708" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>119</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="709" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>119</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="710" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>119</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="711" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>119</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="712" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>119</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="713" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>119</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="714" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>119</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="715" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>119</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="716" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>119</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="717" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>119</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="718" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>119</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="719" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>119</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="720" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>119</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="721" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>119</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>119</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="723" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>119</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>119</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>119</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>119</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="727" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>119</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>119</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>119</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>119</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>119</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>119</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>119</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>119</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>119</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>119</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>119</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>119</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>119</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>119</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>119</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>119</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="743" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>119</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>119</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>119</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>119</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="747" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>119</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>119</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>119</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>119</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>119</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>119</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>119</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>119</v>
       </c>
@@ -7115,47 +7115,47 @@
         <v>119</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" s="1" t="s">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
         <v>0</v>
       </c>
-      <c r="B755" s="1" t="s">
+      <c r="B755" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756" s="1" t="s">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
         <v>1</v>
       </c>
-      <c r="B756" s="1" t="s">
+      <c r="B756" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757" s="1" t="s">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
         <v>2</v>
       </c>
-      <c r="B757" s="1" t="s">
+      <c r="B757" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" s="1" t="s">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
         <v>3</v>
       </c>
-      <c r="B758" s="1" t="s">
+      <c r="B758" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" s="1" t="s">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
         <v>4</v>
       </c>
-      <c r="B759" s="1" t="s">
+      <c r="B759" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>5</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>6</v>
       </c>
@@ -7171,875 +7171,875 @@
         <v>7</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" s="1" t="s">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
         <v>7</v>
       </c>
-      <c r="B762" s="1" t="s">
+      <c r="B762" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" s="1" t="s">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
         <v>8</v>
       </c>
-      <c r="B763" s="1" t="s">
+      <c r="B763" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" s="1" t="s">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
         <v>9</v>
       </c>
-      <c r="B764" s="1" t="s">
+      <c r="B764" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" s="1" t="s">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
         <v>10</v>
       </c>
-      <c r="B765" s="1" t="s">
+      <c r="B765" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766" s="1" t="s">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
         <v>11</v>
       </c>
-      <c r="B766" s="1" t="s">
+      <c r="B766" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767" s="1" t="s">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
         <v>12</v>
       </c>
-      <c r="B767" s="1" t="s">
+      <c r="B767" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768" s="1" t="s">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
         <v>13</v>
       </c>
-      <c r="B768" s="1" t="s">
+      <c r="B768" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769" s="1" t="s">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
         <v>14</v>
       </c>
-      <c r="B769" s="1" t="s">
+      <c r="B769" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770" s="1" t="s">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
         <v>15</v>
       </c>
-      <c r="B770" s="1" t="s">
+      <c r="B770" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771" s="1" t="s">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
         <v>16</v>
       </c>
-      <c r="B771" s="1" t="s">
+      <c r="B771" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772" s="1" t="s">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
         <v>17</v>
       </c>
-      <c r="B772" s="1" t="s">
+      <c r="B772" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" s="1" t="s">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
         <v>18</v>
       </c>
-      <c r="B773" s="1" t="s">
+      <c r="B773" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774" s="1" t="s">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
         <v>19</v>
       </c>
-      <c r="B774" s="1" t="s">
+      <c r="B774" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775" s="1" t="s">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
         <v>20</v>
       </c>
-      <c r="B775" s="1" t="s">
+      <c r="B775" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776" s="1" t="s">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
         <v>21</v>
       </c>
-      <c r="B776" s="1" t="s">
+      <c r="B776" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" s="1" t="s">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
         <v>22</v>
       </c>
-      <c r="B777" s="1" t="s">
+      <c r="B777" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" s="1" t="s">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
         <v>23</v>
       </c>
-      <c r="B778" s="1" t="s">
+      <c r="B778" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779" s="1" t="s">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
         <v>24</v>
       </c>
-      <c r="B779" s="1" t="s">
+      <c r="B779" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780" s="1" t="s">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
         <v>25</v>
       </c>
-      <c r="B780" s="1" t="s">
+      <c r="B780" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781" s="1" t="s">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
         <v>26</v>
       </c>
-      <c r="B781" s="1" t="s">
+      <c r="B781" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782" s="1" t="s">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
         <v>27</v>
       </c>
-      <c r="B782" s="1" t="s">
+      <c r="B782" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" s="1" t="s">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
         <v>28</v>
       </c>
-      <c r="B783" s="1" t="s">
+      <c r="B783" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" s="1" t="s">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
         <v>29</v>
       </c>
-      <c r="B784" s="1" t="s">
+      <c r="B784" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785" s="1" t="s">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
         <v>30</v>
       </c>
-      <c r="B785" s="1" t="s">
+      <c r="B785" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786" s="1" t="s">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
         <v>31</v>
       </c>
-      <c r="B786" s="1" t="s">
+      <c r="B786" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" s="1" t="s">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
         <v>32</v>
       </c>
-      <c r="B787" s="1" t="s">
+      <c r="B787" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" s="1" t="s">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
         <v>33</v>
       </c>
-      <c r="B788" s="1" t="s">
+      <c r="B788" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" s="1" t="s">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
         <v>34</v>
       </c>
-      <c r="B789" s="1" t="s">
+      <c r="B789" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790" s="1" t="s">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
         <v>35</v>
       </c>
-      <c r="B790" s="1" t="s">
+      <c r="B790" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A791" s="1" t="s">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
         <v>36</v>
       </c>
-      <c r="B791" s="1" t="s">
+      <c r="B791" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792" s="1" t="s">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
         <v>37</v>
       </c>
-      <c r="B792" s="1" t="s">
+      <c r="B792" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" s="1" t="s">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
         <v>38</v>
       </c>
-      <c r="B793" s="1" t="s">
+      <c r="B793" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794" s="1" t="s">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
         <v>39</v>
       </c>
-      <c r="B794" s="1" t="s">
+      <c r="B794" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795" s="1" t="s">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
         <v>40</v>
       </c>
-      <c r="B795" s="1" t="s">
+      <c r="B795" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796" s="1" t="s">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
         <v>41</v>
       </c>
-      <c r="B796" s="1" t="s">
+      <c r="B796" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797" s="1" t="s">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
         <v>42</v>
       </c>
-      <c r="B797" s="1" t="s">
+      <c r="B797" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" s="1" t="s">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
         <v>43</v>
       </c>
-      <c r="B798" s="1" t="s">
+      <c r="B798" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799" s="1" t="s">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
         <v>44</v>
       </c>
-      <c r="B799" s="1" t="s">
+      <c r="B799" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800" s="1" t="s">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
         <v>45</v>
       </c>
-      <c r="B800" s="1" t="s">
+      <c r="B800" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801" s="1" t="s">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
         <v>46</v>
       </c>
-      <c r="B801" s="1" t="s">
+      <c r="B801" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" s="1" t="s">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
         <v>47</v>
       </c>
-      <c r="B802" s="1" t="s">
+      <c r="B802" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" s="1" t="s">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
         <v>48</v>
       </c>
-      <c r="B803" s="1" t="s">
+      <c r="B803" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804" s="1" t="s">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
         <v>49</v>
       </c>
-      <c r="B804" s="1" t="s">
+      <c r="B804" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805" s="1" t="s">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
         <v>50</v>
       </c>
-      <c r="B805" s="1" t="s">
+      <c r="B805" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806" s="1" t="s">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
         <v>51</v>
       </c>
-      <c r="B806" s="1" t="s">
+      <c r="B806" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" s="1" t="s">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
         <v>52</v>
       </c>
-      <c r="B807" s="1" t="s">
+      <c r="B807" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" s="1" t="s">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
         <v>53</v>
       </c>
-      <c r="B808" s="1" t="s">
+      <c r="B808" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809" s="1" t="s">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
         <v>54</v>
       </c>
-      <c r="B809" s="1" t="s">
+      <c r="B809" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810" s="1" t="s">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
         <v>55</v>
       </c>
-      <c r="B810" s="1" t="s">
+      <c r="B810" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811" s="1" t="s">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
         <v>56</v>
       </c>
-      <c r="B811" s="1" t="s">
+      <c r="B811" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812" s="1" t="s">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
         <v>57</v>
       </c>
-      <c r="B812" s="1" t="s">
+      <c r="B812" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" s="1" t="s">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
         <v>58</v>
       </c>
-      <c r="B813" s="1" t="s">
+      <c r="B813" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A814" s="1" t="s">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
         <v>59</v>
       </c>
-      <c r="B814" s="1" t="s">
+      <c r="B814" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A815" s="1" t="s">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
         <v>60</v>
       </c>
-      <c r="B815" s="1" t="s">
+      <c r="B815" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A816" s="1" t="s">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
         <v>61</v>
       </c>
-      <c r="B816" s="1" t="s">
+      <c r="B816" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A817" s="1" t="s">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
         <v>62</v>
       </c>
-      <c r="B817" s="1" t="s">
+      <c r="B817" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818" s="1" t="s">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
         <v>63</v>
       </c>
-      <c r="B818" s="1" t="s">
+      <c r="B818" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A819" s="1" t="s">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
         <v>64</v>
       </c>
-      <c r="B819" s="1" t="s">
+      <c r="B819" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A820" s="1" t="s">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
         <v>65</v>
       </c>
-      <c r="B820" s="1" t="s">
+      <c r="B820" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A821" s="1" t="s">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
         <v>66</v>
       </c>
-      <c r="B821" s="1" t="s">
+      <c r="B821" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A822" s="1" t="s">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
         <v>67</v>
       </c>
-      <c r="B822" s="1" t="s">
+      <c r="B822" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A823" s="1" t="s">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
         <v>68</v>
       </c>
-      <c r="B823" s="1" t="s">
+      <c r="B823" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A824" s="1" t="s">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
         <v>69</v>
       </c>
-      <c r="B824" s="1" t="s">
+      <c r="B824" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A825" s="1" t="s">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
         <v>70</v>
       </c>
-      <c r="B825" s="1" t="s">
+      <c r="B825" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A826" s="1" t="s">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
         <v>71</v>
       </c>
-      <c r="B826" s="1" t="s">
+      <c r="B826" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A827" s="1" t="s">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
         <v>72</v>
       </c>
-      <c r="B827" s="1" t="s">
+      <c r="B827" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A828" s="1" t="s">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
         <v>73</v>
       </c>
-      <c r="B828" s="1" t="s">
+      <c r="B828" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A829" s="1" t="s">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
         <v>74</v>
       </c>
-      <c r="B829" s="1" t="s">
+      <c r="B829" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A830" s="1" t="s">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
         <v>75</v>
       </c>
-      <c r="B830" s="1" t="s">
+      <c r="B830" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A831" s="1" t="s">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
         <v>76</v>
       </c>
-      <c r="B831" s="1" t="s">
+      <c r="B831" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A832" s="1" t="s">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
         <v>77</v>
       </c>
-      <c r="B832" s="1" t="s">
+      <c r="B832" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A833" s="1" t="s">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
         <v>78</v>
       </c>
-      <c r="B833" s="1" t="s">
+      <c r="B833" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A834" s="1" t="s">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
         <v>79</v>
       </c>
-      <c r="B834" s="1" t="s">
+      <c r="B834" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A835" s="1" t="s">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
         <v>80</v>
       </c>
-      <c r="B835" s="1" t="s">
+      <c r="B835" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A836" s="1" t="s">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
         <v>81</v>
       </c>
-      <c r="B836" s="1" t="s">
+      <c r="B836" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A837" s="1" t="s">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
         <v>82</v>
       </c>
-      <c r="B837" s="1" t="s">
+      <c r="B837" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A838" s="1" t="s">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
         <v>83</v>
       </c>
-      <c r="B838" s="1" t="s">
+      <c r="B838" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A839" s="1" t="s">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
         <v>84</v>
       </c>
-      <c r="B839" s="1" t="s">
+      <c r="B839" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A840" s="1" t="s">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
         <v>85</v>
       </c>
-      <c r="B840" s="1" t="s">
+      <c r="B840" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A841" s="1" t="s">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
         <v>86</v>
       </c>
-      <c r="B841" s="1" t="s">
+      <c r="B841" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A842" s="1" t="s">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
         <v>87</v>
       </c>
-      <c r="B842" s="1" t="s">
+      <c r="B842" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A843" s="1" t="s">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
         <v>88</v>
       </c>
-      <c r="B843" s="1" t="s">
+      <c r="B843" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A844" s="1" t="s">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
         <v>89</v>
       </c>
-      <c r="B844" s="1" t="s">
+      <c r="B844" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A845" s="1" t="s">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
         <v>90</v>
       </c>
-      <c r="B845" s="1" t="s">
+      <c r="B845" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846" s="1" t="s">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
         <v>91</v>
       </c>
-      <c r="B846" s="1" t="s">
+      <c r="B846" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A847" s="1" t="s">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
         <v>92</v>
       </c>
-      <c r="B847" s="1" t="s">
+      <c r="B847" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A848" s="1" t="s">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
         <v>93</v>
       </c>
-      <c r="B848" s="1" t="s">
+      <c r="B848" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A849" s="1" t="s">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
         <v>94</v>
       </c>
-      <c r="B849" s="1" t="s">
+      <c r="B849" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A850" s="1" t="s">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
         <v>95</v>
       </c>
-      <c r="B850" s="1" t="s">
+      <c r="B850" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A851" s="1" t="s">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
         <v>96</v>
       </c>
-      <c r="B851" s="1" t="s">
+      <c r="B851" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A852" s="1" t="s">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
         <v>97</v>
       </c>
-      <c r="B852" s="1" t="s">
+      <c r="B852" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A853" s="1" t="s">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
         <v>98</v>
       </c>
-      <c r="B853" s="1" t="s">
+      <c r="B853" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A854" s="1" t="s">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
         <v>99</v>
       </c>
-      <c r="B854" s="1" t="s">
+      <c r="B854" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A855" s="1" t="s">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
         <v>100</v>
       </c>
-      <c r="B855" s="1" t="s">
+      <c r="B855" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A856" s="1" t="s">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
         <v>101</v>
       </c>
-      <c r="B856" s="1" t="s">
+      <c r="B856" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A857" s="1" t="s">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
         <v>102</v>
       </c>
-      <c r="B857" s="1" t="s">
+      <c r="B857" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A858" s="1" t="s">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
         <v>103</v>
       </c>
-      <c r="B858" s="1" t="s">
+      <c r="B858" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A859" s="1" t="s">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
         <v>104</v>
       </c>
-      <c r="B859" s="1" t="s">
+      <c r="B859" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A860" s="1" t="s">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
         <v>105</v>
       </c>
-      <c r="B860" s="1" t="s">
+      <c r="B860" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A861" s="1" t="s">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
         <v>106</v>
       </c>
-      <c r="B861" s="1" t="s">
+      <c r="B861" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A862" s="1" t="s">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
         <v>107</v>
       </c>
-      <c r="B862" s="1" t="s">
+      <c r="B862" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A863" s="1" t="s">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
         <v>108</v>
       </c>
-      <c r="B863" s="1" t="s">
+      <c r="B863" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A864" s="1" t="s">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
         <v>109</v>
       </c>
-      <c r="B864" s="1" t="s">
+      <c r="B864" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A865" s="1" t="s">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
         <v>110</v>
       </c>
-      <c r="B865" s="1" t="s">
+      <c r="B865" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A866" s="1" t="s">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
         <v>111</v>
       </c>
-      <c r="B866" s="1" t="s">
+      <c r="B866" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A867" s="1" t="s">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
         <v>112</v>
       </c>
-      <c r="B867" s="1" t="s">
+      <c r="B867" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A868" s="1" t="s">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
         <v>113</v>
       </c>
-      <c r="B868" s="1" t="s">
+      <c r="B868" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A869" s="1" t="s">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
         <v>114</v>
       </c>
-      <c r="B869" s="1" t="s">
+      <c r="B869" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A870" s="1" t="s">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
         <v>115</v>
       </c>
-      <c r="B870" s="1" t="s">
+      <c r="B870" t="s">
         <v>115</v>
       </c>
     </row>
